--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DDF49F-411E-BD4D-9BDC-7F4063521948}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71CF34E-D245-B149-908C-E77A843CB7F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38620" yWindow="440" windowWidth="25120" windowHeight="20340" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="900" yWindow="440" windowWidth="27400" windowHeight="20340" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,8 +520,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,11 +846,12 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="A23" sqref="A23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="27" max="27" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -941,35 +951,35 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="24">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
@@ -1237,75 +1247,75 @@
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30" t="s">
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29" t="s">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
       <c r="AA22" s="18"/>
     </row>
     <row r="23" spans="1:27" ht="51" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:27">

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71CF34E-D245-B149-908C-E77A843CB7F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E2354-156C-4B97-8661-ECD2917B44A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="440" windowWidth="27400" windowHeight="20340" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>１/ １</t>
     <phoneticPr fontId="1"/>
@@ -48,52 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〒0200004　岩手県盛岡市大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="9" eb="12">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海外事業部 TEL 086-244-0088　FAX 086-244-6377</t>
-    <rPh sb="0" eb="2">
-      <t>カイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機械部　TEL 086-244-0080　FAX 086-243-9260</t>
-    <rPh sb="0" eb="2">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大代表　TEL 086-244-0001</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ダイヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>株式会社 XXXXX 殿</t>
     <rPh sb="0" eb="4">
       <t>カブシキガイシャ</t>
@@ -126,27 +80,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社　全 備</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>We will contact you as below, so thank you.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Please write unit price, delivery date, please reply by 2016/06/10.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Please contact me in advance if shipping costs take place.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,13 +97,6 @@
   </si>
   <si>
     <t>PAGE:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□本社</t>
-    <rPh sb="1" eb="3">
-      <t>ホンシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -194,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>☆Please contact us once again before replying.　→　FAX:　086-244-6377</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Maker / Item Name / Model</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,6 +141,30 @@
   </si>
   <si>
     <t>Remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□HQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆Please send email to the following address "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Please write unit price, delivery date, please reply by </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +248,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -405,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,19 +414,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -496,6 +435,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,15 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,6 +483,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>221693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0736CD91-F5B6-417A-8CDF-DDC710ECFA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="30480"/>
+          <a:ext cx="845820" cy="419813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,35 +839,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="27" max="27" width="3.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="W1" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="R2" s="24" t="s">
-        <v>11</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="R2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
@@ -883,16 +873,16 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="24">
-      <c r="A3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>12</v>
+    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -902,86 +892,82 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="AA4" s="20"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="AA5" s="20"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="24">
-      <c r="A10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-    </row>
-    <row r="11" spans="1:27">
+    <row r="10" spans="1:27" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1010,9 +996,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="20">
+    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -1041,9 +1027,9 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -1072,9 +1058,9 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -1103,9 +1089,9 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -1134,9 +1120,9 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="22" t="s">
-        <v>17</v>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -1165,9 +1151,9 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1196,7 +1182,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1225,100 +1211,100 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="Q20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="V20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
       <c r="AA22" s="18"/>
     </row>
-    <row r="23" spans="1:27" ht="51" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="27"/>
-    </row>
-    <row r="24" spans="1:27">
+    <row r="23" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="26"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="11"/>
@@ -1347,7 +1333,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1376,7 +1362,7 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1405,7 +1391,7 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1434,7 +1420,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
@@ -1463,7 +1449,7 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -1492,7 +1478,7 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
@@ -1521,7 +1507,7 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
@@ -1550,7 +1536,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1579,7 +1565,7 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="16"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1608,7 +1594,7 @@
       <c r="Z33" s="16"/>
       <c r="AA33" s="16"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1637,7 +1623,7 @@
       <c r="Z34" s="16"/>
       <c r="AA34" s="16"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1666,7 +1652,7 @@
       <c r="Z35" s="16"/>
       <c r="AA35" s="16"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1695,9 +1681,9 @@
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1726,7 +1712,7 @@
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1772,5 +1758,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC8065-EC51-446E-8C89-F10FC9024847}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E4C7D-CFB5-43F0-8393-13F59F5243E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="30960" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -334,13 +334,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,9 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -401,29 +411,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,21 +818,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1"/>
@@ -827,7 +849,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -838,112 +860,112 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
+      <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -953,7 +975,7 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -962,12 +984,12 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
@@ -982,13 +1004,13 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -996,8 +1018,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
@@ -1071,17 +1093,17 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
@@ -1089,15 +1111,17 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E4C7D-CFB5-43F0-8393-13F59F5243E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F8F3C-DC56-4A90-B759-BFEF2B6C80F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,24 +222,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -298,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -334,26 +317,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,52 +339,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,29 +387,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,276 +771,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1093,17 +1026,17 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="22"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
@@ -1111,17 +1044,15 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F8F3C-DC56-4A90-B759-BFEF2B6C80F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{53670DE1-1F19-47CA-B5CA-DFD8446F1719}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8E5419B7-99A6-4982-A4D9-0B90DF76FF62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
@@ -323,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,9 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,7 +771,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -947,7 +944,7 @@
       <c r="D22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="10" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{53670DE1-1F19-47CA-B5CA-DFD8446F1719}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8E5419B7-99A6-4982-A4D9-0B90DF76FF62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38359388-2108-4E06-BA22-E6DBA179F15D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="4710" yWindow="990" windowWidth="21600" windowHeight="12780" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>１/ １</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>QT201606-0233</t>
     <phoneticPr fontId="1"/>
@@ -58,16 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OMROM
-SENSOR
-EE-SX671A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3 PCS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Quotation Request</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,68 +90,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>西中　宏侑</t>
+    <t>Maker / Item Name / Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantity / Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Please write unit price, delivery date, please reply by </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lead Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビガータ株式会社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□本社</t>
+    <rPh sb="1" eb="3">
+      <t>ホンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〒0200004　岩手県盛岡市大通三丁目6番12号 開運橋センタービル3階</t>
+    <rPh sb="9" eb="12">
+      <t>イワテケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外事業部 telp. 019-600-0000 Fax.019-600-0000</t>
     <rPh sb="0" eb="2">
-      <t>ニシナカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロ</t>
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジギョウ</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ススム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maker / Item Name / Model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quantity / Unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unit Price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cikarang Techno Park Building-3A Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□HQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>☆Please send email to the following address "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・Please write unit price, delivery date, please reply by </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lead Time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡　泰子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PAGE:</t>
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発部　telp. 019-600-0000 Fax.019-600-0000</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表　TEL 019-601-6115</t>
+    <rPh sb="0" eb="2">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠原　恵利</t>
+    <rPh sb="0" eb="2">
+      <t>カサハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久慈　昌和</t>
+    <rPh sb="0" eb="2">
+      <t>クジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサカズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆Please contact us once again before replying.　→　Fax.019-600-0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -323,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,21 +384,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -396,7 +414,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,23 +462,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>887730</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>221693</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594938</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0736CD91-F5B6-417A-8CDF-DDC710ECFA39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BC853C-73DE-4B5E-8830-9FE94DB9D387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,8 +500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="30480"/>
-          <a:ext cx="845820" cy="419813"/>
+          <a:off x="1847850" y="190500"/>
+          <a:ext cx="699713" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,292 +810,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E1" s="13"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="16"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="D19" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="D20" t="s">
+      <c r="D22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="17"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;P / &amp;N </oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/QuotationRequest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38359388-2108-4E06-BA22-E6DBA179F15D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE4642A-AD57-4CC9-9638-3EA1981EA467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="990" windowWidth="21600" windowHeight="12780" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>QT201606-0233</t>
     <phoneticPr fontId="1"/>
@@ -90,105 +90,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Maker / Item Name / Model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quantity / Unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unit Price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・Please write unit price, delivery date, please reply by </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lead Time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビガータ株式会社</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□本社</t>
-    <rPh sb="1" eb="3">
-      <t>ホンシャ</t>
+    <t>西中　宏侑</t>
+    <rPh sb="0" eb="2">
+      <t>ニシナカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〒0200004　岩手県盛岡市大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="9" eb="12">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海外事業部 telp. 019-600-0000 Fax.019-600-0000</t>
-    <rPh sb="0" eb="2">
-      <t>カイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジギョウ</t>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ブ</t>
+      <t>ススム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開発部　telp. 019-600-0000 Fax.019-600-0000</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代表　TEL 019-601-6115</t>
-    <rPh sb="0" eb="2">
-      <t>ダイヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>笠原　恵利</t>
-    <rPh sb="0" eb="2">
-      <t>カサハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>久慈　昌和</t>
-    <rPh sb="0" eb="2">
-      <t>クジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサカズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>☆Please contact us once again before replying.　→　Fax.019-600-0000</t>
+    <t>Maker / Item Name / Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantity / Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□HQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆Please send email to the following address "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Please write unit price, delivery date, please reply by </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lead Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡　泰子</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -350,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,9 +373,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,12 +389,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,23 +412,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>594938</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>649605</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BC853C-73DE-4B5E-8830-9FE94DB9D387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0736CD91-F5B6-417A-8CDF-DDC710ECFA39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -500,8 +450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="190500"/>
-          <a:ext cx="699713" cy="666750"/>
+          <a:off x="40005" y="49530"/>
+          <a:ext cx="857250" cy="429338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,16 +763,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -839,7 +789,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -849,45 +799,41 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -896,7 +842,7 @@
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -905,16 +851,16 @@
       <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -923,7 +869,7 @@
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -932,7 +878,7 @@
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -941,14 +887,14 @@
       <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
@@ -957,8 +903,8 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
+      <c r="F19" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -966,100 +912,100 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
-        <v>25</v>
+      <c r="F20" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29" t="s">
-        <v>27</v>
+      <c r="A22" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="28"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="25"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
-      <c r="C24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
-      <c r="C26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
-      <c r="C30" s="26"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
-      <c r="C32" s="26"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
@@ -1079,14 +1025,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
-      <c r="C36" s="26"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="26"/>
+      <c r="A37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="25"/>
       <c r="D37" s="2"/>
     </row>
   </sheetData>
